--- a/backtesting/cashed_stats.xlsx
+++ b/backtesting/cashed_stats.xlsx
@@ -453,7 +453,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:U11"/>
+  <dimension ref="A1:R11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -472,33 +472,30 @@
       <c r="D1" s="1" t="n"/>
       <c r="E1" s="1" t="n"/>
       <c r="F1" s="1" t="n"/>
-      <c r="G1" s="1" t="n"/>
-      <c r="H1" s="1" t="inlineStr">
+      <c r="G1" s="1" t="inlineStr">
         <is>
           <t>Estrategia</t>
         </is>
       </c>
+      <c r="H1" s="1" t="n"/>
       <c r="I1" s="1" t="n"/>
       <c r="J1" s="1" t="n"/>
       <c r="K1" s="1" t="n"/>
-      <c r="L1" s="1" t="n"/>
+      <c r="L1" s="1" t="inlineStr">
+        <is>
+          <t>S&amp;P-500</t>
+        </is>
+      </c>
       <c r="M1" s="1" t="n"/>
-      <c r="N1" s="1" t="inlineStr">
-        <is>
-          <t>S&amp;P-500</t>
-        </is>
-      </c>
+      <c r="N1" s="1" t="n"/>
       <c r="O1" s="1" t="n"/>
       <c r="P1" s="1" t="n"/>
-      <c r="Q1" s="1" t="n"/>
-      <c r="R1" s="1" t="n"/>
-      <c r="S1" s="1" t="n"/>
-      <c r="T1" s="1" t="inlineStr">
+      <c r="Q1" s="1" t="inlineStr">
         <is>
           <t>q days</t>
         </is>
       </c>
-      <c r="U1" s="1" t="inlineStr">
+      <c r="R1" s="1" t="inlineStr">
         <is>
           <t>position</t>
         </is>
@@ -533,71 +530,56 @@
       </c>
       <c r="G2" s="1" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t>%30d</t>
         </is>
       </c>
       <c r="H2" s="1" t="inlineStr">
         <is>
+          <t>%60d</t>
+        </is>
+      </c>
+      <c r="I2" s="1" t="inlineStr">
+        <is>
+          <t>%90d</t>
+        </is>
+      </c>
+      <c r="J2" s="1" t="inlineStr">
+        <is>
+          <t>%180d</t>
+        </is>
+      </c>
+      <c r="K2" s="1" t="inlineStr">
+        <is>
+          <t>%total</t>
+        </is>
+      </c>
+      <c r="L2" s="1" t="inlineStr">
+        <is>
           <t>%30d</t>
         </is>
       </c>
-      <c r="I2" s="1" t="inlineStr">
+      <c r="M2" s="1" t="inlineStr">
         <is>
           <t>%60d</t>
         </is>
       </c>
-      <c r="J2" s="1" t="inlineStr">
+      <c r="N2" s="1" t="inlineStr">
         <is>
           <t>%90d</t>
         </is>
       </c>
-      <c r="K2" s="1" t="inlineStr">
+      <c r="O2" s="1" t="inlineStr">
         <is>
           <t>%180d</t>
         </is>
       </c>
-      <c r="L2" s="1" t="inlineStr">
+      <c r="P2" s="1" t="inlineStr">
         <is>
           <t>%total</t>
         </is>
       </c>
-      <c r="M2" s="1" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> </t>
-        </is>
-      </c>
-      <c r="N2" s="1" t="inlineStr">
-        <is>
-          <t>%30d</t>
-        </is>
-      </c>
-      <c r="O2" s="1" t="inlineStr">
-        <is>
-          <t>%60d</t>
-        </is>
-      </c>
-      <c r="P2" s="1" t="inlineStr">
-        <is>
-          <t>%90d</t>
-        </is>
-      </c>
-      <c r="Q2" s="1" t="inlineStr">
-        <is>
-          <t>%180d</t>
-        </is>
-      </c>
-      <c r="R2" s="1" t="inlineStr">
-        <is>
-          <t>%total</t>
-        </is>
-      </c>
-      <c r="S2" s="1" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> </t>
-        </is>
-      </c>
-      <c r="T2" s="1" t="inlineStr"/>
-      <c r="U2" s="1" t="inlineStr"/>
+      <c r="Q2" s="1" t="inlineStr"/>
+      <c r="R2" s="1" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" s="1" t="inlineStr">
@@ -613,21 +595,23 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>-0.02324654614489574</v>
+        <v>-0.02324634147679875</v>
       </c>
       <c r="C4" t="n">
-        <v>-0.02324654614489574</v>
+        <v>-0.02324634147679875</v>
       </c>
       <c r="D4" t="n">
-        <v>-0.02324654614489574</v>
+        <v>-0.02324634147679875</v>
       </c>
       <c r="E4" t="n">
-        <v>-0.02324654614489574</v>
+        <v>-0.02324634147679875</v>
       </c>
       <c r="F4" t="n">
-        <v>-0.02324654614489574</v>
-      </c>
-      <c r="G4" t="inlineStr"/>
+        <v>-0.02324634147679875</v>
+      </c>
+      <c r="G4" t="n">
+        <v>0</v>
+      </c>
       <c r="H4" t="n">
         <v>0</v>
       </c>
@@ -641,9 +625,11 @@
         <v>0</v>
       </c>
       <c r="L4" t="n">
-        <v>0</v>
-      </c>
-      <c r="M4" t="inlineStr"/>
+        <v>-0.005713699608975589</v>
+      </c>
+      <c r="M4" t="n">
+        <v>-0.005713699608975589</v>
+      </c>
       <c r="N4" t="n">
         <v>-0.005713699608975589</v>
       </c>
@@ -654,16 +640,9 @@
         <v>-0.005713699608975589</v>
       </c>
       <c r="Q4" t="n">
-        <v>-0.005713699608975589</v>
+        <v>3</v>
       </c>
       <c r="R4" t="n">
-        <v>-0.005713699608975589</v>
-      </c>
-      <c r="S4" t="inlineStr"/>
-      <c r="T4" t="n">
-        <v>3</v>
-      </c>
-      <c r="U4" t="n">
         <v>0</v>
       </c>
     </row>
@@ -674,21 +653,23 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>-0.04081772022140743</v>
+        <v>-0.04081762082326026</v>
       </c>
       <c r="C5" t="n">
-        <v>-0.04081772022140743</v>
+        <v>-0.04081762082326026</v>
       </c>
       <c r="D5" t="n">
-        <v>-0.04081772022140743</v>
+        <v>-0.04081762082326026</v>
       </c>
       <c r="E5" t="n">
-        <v>-0.04081772022140743</v>
+        <v>-0.04081762082326026</v>
       </c>
       <c r="F5" t="n">
-        <v>-0.04081772022140743</v>
-      </c>
-      <c r="G5" t="inlineStr"/>
+        <v>-0.04081762082326026</v>
+      </c>
+      <c r="G5" t="n">
+        <v>0</v>
+      </c>
       <c r="H5" t="n">
         <v>0</v>
       </c>
@@ -702,9 +683,11 @@
         <v>0</v>
       </c>
       <c r="L5" t="n">
-        <v>0</v>
-      </c>
-      <c r="M5" t="inlineStr"/>
+        <v>-0.03433575794973238</v>
+      </c>
+      <c r="M5" t="n">
+        <v>-0.03433575794973238</v>
+      </c>
       <c r="N5" t="n">
         <v>-0.03433575794973238</v>
       </c>
@@ -715,16 +698,9 @@
         <v>-0.03433575794973238</v>
       </c>
       <c r="Q5" t="n">
-        <v>-0.03433575794973238</v>
+        <v>2</v>
       </c>
       <c r="R5" t="n">
-        <v>-0.03433575794973238</v>
-      </c>
-      <c r="S5" t="inlineStr"/>
-      <c r="T5" t="n">
-        <v>2</v>
-      </c>
-      <c r="U5" t="n">
         <v>0</v>
       </c>
     </row>
@@ -735,21 +711,23 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-0.02978975184235973</v>
+        <v>-0.02978975508304558</v>
       </c>
       <c r="C6" t="n">
-        <v>-0.02978975184235973</v>
+        <v>-0.02978975508304558</v>
       </c>
       <c r="D6" t="n">
-        <v>-0.02978975184235973</v>
+        <v>-0.02978975508304558</v>
       </c>
       <c r="E6" t="n">
-        <v>-0.02978975184235973</v>
+        <v>-0.02978975508304558</v>
       </c>
       <c r="F6" t="n">
-        <v>-0.02978975184235973</v>
-      </c>
-      <c r="G6" t="inlineStr"/>
+        <v>-0.02978975508304558</v>
+      </c>
+      <c r="G6" t="n">
+        <v>0</v>
+      </c>
       <c r="H6" t="n">
         <v>0</v>
       </c>
@@ -763,9 +741,11 @@
         <v>0</v>
       </c>
       <c r="L6" t="n">
-        <v>0</v>
-      </c>
-      <c r="M6" t="inlineStr"/>
+        <v>-0.02014303607589204</v>
+      </c>
+      <c r="M6" t="n">
+        <v>-0.02014303607589204</v>
+      </c>
       <c r="N6" t="n">
         <v>-0.02014303607589204</v>
       </c>
@@ -776,16 +756,9 @@
         <v>-0.02014303607589204</v>
       </c>
       <c r="Q6" t="n">
-        <v>-0.02014303607589204</v>
+        <v>1</v>
       </c>
       <c r="R6" t="n">
-        <v>-0.02014303607589204</v>
-      </c>
-      <c r="S6" t="inlineStr"/>
-      <c r="T6" t="n">
-        <v>1</v>
-      </c>
-      <c r="U6" t="n">
         <v>0</v>
       </c>
     </row>
@@ -796,21 +769,23 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0.1479935518805164</v>
+        <v>0.1479936768535107</v>
       </c>
       <c r="C7" t="n">
-        <v>0.1479935518805164</v>
+        <v>0.1479936768535107</v>
       </c>
       <c r="D7" t="n">
-        <v>0.1479935518805164</v>
+        <v>0.1479936768535107</v>
       </c>
       <c r="E7" t="n">
-        <v>0.1479935518805164</v>
+        <v>0.1479936768535107</v>
       </c>
       <c r="F7" t="n">
-        <v>0.1479935518805164</v>
-      </c>
-      <c r="G7" t="inlineStr"/>
+        <v>0.1479936768535107</v>
+      </c>
+      <c r="G7" t="n">
+        <v>0</v>
+      </c>
       <c r="H7" t="n">
         <v>0</v>
       </c>
@@ -824,9 +799,11 @@
         <v>0</v>
       </c>
       <c r="L7" t="n">
-        <v>0</v>
-      </c>
-      <c r="M7" t="inlineStr"/>
+        <v>0.07801350289705088</v>
+      </c>
+      <c r="M7" t="n">
+        <v>0.07801350289705088</v>
+      </c>
       <c r="N7" t="n">
         <v>0.07801350289705088</v>
       </c>
@@ -837,16 +814,9 @@
         <v>0.07801350289705088</v>
       </c>
       <c r="Q7" t="n">
-        <v>0.07801350289705088</v>
+        <v>24</v>
       </c>
       <c r="R7" t="n">
-        <v>0.07801350289705088</v>
-      </c>
-      <c r="S7" t="inlineStr"/>
-      <c r="T7" t="n">
-        <v>24</v>
-      </c>
-      <c r="U7" t="n">
         <v>0</v>
       </c>
     </row>
@@ -857,21 +827,23 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>-0.02957516590568746</v>
+        <v>-0.02957496300735528</v>
       </c>
       <c r="C8" t="n">
-        <v>-0.02957516590568746</v>
+        <v>-0.02957496300735528</v>
       </c>
       <c r="D8" t="n">
-        <v>-0.02957516590568746</v>
+        <v>-0.02957496300735528</v>
       </c>
       <c r="E8" t="n">
-        <v>-0.02957516590568746</v>
+        <v>-0.02957496300735528</v>
       </c>
       <c r="F8" t="n">
-        <v>-0.02957516590568746</v>
-      </c>
-      <c r="G8" t="inlineStr"/>
+        <v>-0.02957496300735528</v>
+      </c>
+      <c r="G8" t="n">
+        <v>0</v>
+      </c>
       <c r="H8" t="n">
         <v>0</v>
       </c>
@@ -885,9 +857,11 @@
         <v>0</v>
       </c>
       <c r="L8" t="n">
-        <v>0</v>
-      </c>
-      <c r="M8" t="inlineStr"/>
+        <v>-0.009914873467466851</v>
+      </c>
+      <c r="M8" t="n">
+        <v>-0.009914873467466851</v>
+      </c>
       <c r="N8" t="n">
         <v>-0.009914873467466851</v>
       </c>
@@ -898,16 +872,9 @@
         <v>-0.009914873467466851</v>
       </c>
       <c r="Q8" t="n">
-        <v>-0.009914873467466851</v>
+        <v>9</v>
       </c>
       <c r="R8" t="n">
-        <v>-0.009914873467466851</v>
-      </c>
-      <c r="S8" t="inlineStr"/>
-      <c r="T8" t="n">
-        <v>9</v>
-      </c>
-      <c r="U8" t="n">
         <v>0</v>
       </c>
     </row>
@@ -918,21 +885,23 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>-0.03660645624646634</v>
+        <v>-0.03660665774883531</v>
       </c>
       <c r="C9" t="n">
-        <v>-0.03660645624646634</v>
+        <v>-0.03660665774883531</v>
       </c>
       <c r="D9" t="n">
-        <v>-0.03660645624646634</v>
+        <v>-0.03660665774883531</v>
       </c>
       <c r="E9" t="n">
-        <v>-0.03660645624646634</v>
+        <v>-0.03660665774883531</v>
       </c>
       <c r="F9" t="n">
-        <v>-0.03660645624646634</v>
-      </c>
-      <c r="G9" t="inlineStr"/>
+        <v>-0.03660665774883531</v>
+      </c>
+      <c r="G9" t="n">
+        <v>0</v>
+      </c>
       <c r="H9" t="n">
         <v>0</v>
       </c>
@@ -946,9 +915,11 @@
         <v>0</v>
       </c>
       <c r="L9" t="n">
-        <v>0</v>
-      </c>
-      <c r="M9" t="inlineStr"/>
+        <v>-0.007260330316506085</v>
+      </c>
+      <c r="M9" t="n">
+        <v>-0.007260330316506085</v>
+      </c>
       <c r="N9" t="n">
         <v>-0.007260330316506085</v>
       </c>
@@ -959,16 +930,9 @@
         <v>-0.007260330316506085</v>
       </c>
       <c r="Q9" t="n">
-        <v>-0.007260330316506085</v>
+        <v>17</v>
       </c>
       <c r="R9" t="n">
-        <v>-0.007260330316506085</v>
-      </c>
-      <c r="S9" t="inlineStr"/>
-      <c r="T9" t="n">
-        <v>17</v>
-      </c>
-      <c r="U9" t="n">
         <v>0</v>
       </c>
     </row>
@@ -979,21 +943,23 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>-0.036410039718028</v>
+        <v>-0.03641013953777465</v>
       </c>
       <c r="C10" t="n">
-        <v>-0.036410039718028</v>
+        <v>-0.03641013953777465</v>
       </c>
       <c r="D10" t="n">
-        <v>-0.036410039718028</v>
+        <v>-0.03641013953777465</v>
       </c>
       <c r="E10" t="n">
-        <v>-0.036410039718028</v>
+        <v>-0.03641013953777465</v>
       </c>
       <c r="F10" t="n">
-        <v>-0.036410039718028</v>
-      </c>
-      <c r="G10" t="inlineStr"/>
+        <v>-0.03641013953777465</v>
+      </c>
+      <c r="G10" t="n">
+        <v>0</v>
+      </c>
       <c r="H10" t="n">
         <v>0</v>
       </c>
@@ -1007,9 +973,11 @@
         <v>0</v>
       </c>
       <c r="L10" t="n">
-        <v>0</v>
-      </c>
-      <c r="M10" t="inlineStr"/>
+        <v>-0.03319213366255369</v>
+      </c>
+      <c r="M10" t="n">
+        <v>-0.03319213366255369</v>
+      </c>
       <c r="N10" t="n">
         <v>-0.03319213366255369</v>
       </c>
@@ -1020,16 +988,9 @@
         <v>-0.03319213366255369</v>
       </c>
       <c r="Q10" t="n">
-        <v>-0.03319213366255369</v>
+        <v>5</v>
       </c>
       <c r="R10" t="n">
-        <v>-0.03319213366255369</v>
-      </c>
-      <c r="S10" t="inlineStr"/>
-      <c r="T10" t="n">
-        <v>5</v>
-      </c>
-      <c r="U10" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1040,21 +1001,23 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0.1304999989059684</v>
+        <v>0.1305001140671844</v>
       </c>
       <c r="C11" t="n">
-        <v>0.1304999989059684</v>
+        <v>0.1305001140671844</v>
       </c>
       <c r="D11" t="n">
-        <v>0.1304999989059684</v>
+        <v>0.1305001140671844</v>
       </c>
       <c r="E11" t="n">
-        <v>0.1304999989059684</v>
+        <v>0.1305001140671844</v>
       </c>
       <c r="F11" t="n">
-        <v>0.1304999989059684</v>
-      </c>
-      <c r="G11" t="inlineStr"/>
+        <v>0.1305001140671844</v>
+      </c>
+      <c r="G11" t="n">
+        <v>0</v>
+      </c>
       <c r="H11" t="n">
         <v>0</v>
       </c>
@@ -1068,9 +1031,11 @@
         <v>0</v>
       </c>
       <c r="L11" t="n">
-        <v>0</v>
-      </c>
-      <c r="M11" t="inlineStr"/>
+        <v>0.04935512358394671</v>
+      </c>
+      <c r="M11" t="n">
+        <v>0.04935512358394671</v>
+      </c>
       <c r="N11" t="n">
         <v>0.04935512358394671</v>
       </c>
@@ -1081,24 +1046,17 @@
         <v>0.04935512358394671</v>
       </c>
       <c r="Q11" t="n">
-        <v>0.04935512358394671</v>
+        <v>21</v>
       </c>
       <c r="R11" t="n">
-        <v>0.04935512358394671</v>
-      </c>
-      <c r="S11" t="inlineStr"/>
-      <c r="T11" t="n">
-        <v>21</v>
-      </c>
-      <c r="U11" t="n">
         <v>0</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="3">
-    <mergeCell ref="B1:G1"/>
-    <mergeCell ref="H1:M1"/>
-    <mergeCell ref="N1:S1"/>
+    <mergeCell ref="B1:F1"/>
+    <mergeCell ref="G1:K1"/>
+    <mergeCell ref="L1:P1"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
